--- a/data/output/FV2410_FV2404/UTILMD/55043.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55043.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21014" uniqueCount="1164">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21035" uniqueCount="1164">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -3686,6 +3686,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U907" totalsRowShown="0">
+  <autoFilter ref="A1:U907"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3975,7 +4005,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U907"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -48343,5 +48376,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55043.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55043.xlsx
@@ -6819,7 +6819,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -7327,7 +7327,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -7529,7 +7529,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -7837,7 +7837,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -8411,7 +8411,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -8719,7 +8719,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -8919,7 +8919,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -9137,7 +9137,7 @@
         <v>1054</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -9465,7 +9465,7 @@
         <v>1055</v>
       </c>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -9681,7 +9681,7 @@
         <v>1056</v>
       </c>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -9885,7 +9885,7 @@
         <v>1058</v>
       </c>
       <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -10089,7 +10089,7 @@
         <v>1060</v>
       </c>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -10293,7 +10293,7 @@
         <v>1062</v>
       </c>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -10497,7 +10497,7 @@
         <v>1064</v>
       </c>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -10701,7 +10701,7 @@
         <v>1065</v>
       </c>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -10903,7 +10903,7 @@
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -11099,7 +11099,7 @@
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -11295,7 +11295,7 @@
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -11505,7 +11505,7 @@
         <v>1068</v>
       </c>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -11775,7 +11775,7 @@
         <v>1069</v>
       </c>
       <c r="L98" s="4"/>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -12195,7 +12195,7 @@
         <v>1072</v>
       </c>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -12343,7 +12343,7 @@
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -12669,7 +12669,7 @@
         <v>1074</v>
       </c>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -12863,54 +12863,54 @@
       </c>
     </row>
     <row r="119" spans="1:22">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="2" t="s">
         <v>1272</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="C119" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D119" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5" t="s">
+      <c r="E119" s="2"/>
+      <c r="F119" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
-      <c r="I119" s="5"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
       <c r="J119" s="6" t="s">
         <v>940</v>
       </c>
-      <c r="K119" s="5" t="s">
+      <c r="K119" s="2" t="s">
         <v>1075</v>
       </c>
       <c r="L119" s="7" t="s">
         <v>1164</v>
       </c>
-      <c r="M119" s="5" t="s">
+      <c r="M119" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N119" s="5" t="s">
+      <c r="N119" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="O119" s="5" t="s">
+      <c r="O119" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="P119" s="5"/>
-      <c r="Q119" s="5" t="s">
+      <c r="P119" s="2"/>
+      <c r="Q119" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="R119" s="5"/>
-      <c r="S119" s="5"/>
-      <c r="T119" s="5"/>
+      <c r="R119" s="2"/>
+      <c r="S119" s="2"/>
+      <c r="T119" s="2"/>
       <c r="U119" s="6" t="s">
         <v>1165</v>
       </c>
-      <c r="V119" s="5" t="s">
+      <c r="V119" s="2" t="s">
         <v>1075</v>
       </c>
     </row>
@@ -13111,7 +13111,7 @@
         <v>1077</v>
       </c>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -13273,7 +13273,7 @@
         <v>1078</v>
       </c>
       <c r="L126" s="4"/>
-      <c r="M126" s="2" t="s">
+      <c r="M126" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -13421,7 +13421,7 @@
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -13579,7 +13579,7 @@
       </c>
       <c r="K132" s="2"/>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -13833,7 +13833,7 @@
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -13979,7 +13979,7 @@
       </c>
       <c r="K140" s="2"/>
       <c r="L140" s="4"/>
-      <c r="M140" s="2" t="s">
+      <c r="M140" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N140" s="2" t="s">
@@ -14301,7 +14301,7 @@
         <v>1079</v>
       </c>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -14449,7 +14449,7 @@
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -14611,7 +14611,7 @@
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="4"/>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N152" s="2" t="s">
@@ -14823,7 +14823,7 @@
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -14969,7 +14969,7 @@
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -15069,7 +15069,7 @@
       </c>
       <c r="K161" s="2"/>
       <c r="L161" s="4"/>
-      <c r="M161" s="2" t="s">
+      <c r="M161" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N161" s="2" t="s">
@@ -15215,7 +15215,7 @@
       </c>
       <c r="K164" s="2"/>
       <c r="L164" s="4"/>
-      <c r="M164" s="2" t="s">
+      <c r="M164" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N164" s="2" t="s">
@@ -15371,7 +15371,7 @@
         <v>1079</v>
       </c>
       <c r="L167" s="4"/>
-      <c r="M167" s="2" t="s">
+      <c r="M167" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N167" s="2" t="s">
@@ -15519,7 +15519,7 @@
       </c>
       <c r="K170" s="2"/>
       <c r="L170" s="4"/>
-      <c r="M170" s="2" t="s">
+      <c r="M170" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N170" s="2" t="s">
@@ -15681,7 +15681,7 @@
       </c>
       <c r="K173" s="2"/>
       <c r="L173" s="4"/>
-      <c r="M173" s="2" t="s">
+      <c r="M173" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N173" s="2" t="s">
@@ -15899,7 +15899,7 @@
         <v>1081</v>
       </c>
       <c r="L177" s="4"/>
-      <c r="M177" s="2" t="s">
+      <c r="M177" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N177" s="2" t="s">
@@ -16097,7 +16097,7 @@
       </c>
       <c r="K181" s="2"/>
       <c r="L181" s="4"/>
-      <c r="M181" s="2" t="s">
+      <c r="M181" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N181" s="2" t="s">
@@ -16451,7 +16451,7 @@
       </c>
       <c r="K188" s="2"/>
       <c r="L188" s="4"/>
-      <c r="M188" s="2" t="s">
+      <c r="M188" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N188" s="2" t="s">
@@ -16649,7 +16649,7 @@
         <v>1082</v>
       </c>
       <c r="L192" s="4"/>
-      <c r="M192" s="2" t="s">
+      <c r="M192" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N192" s="2" t="s">
@@ -16797,7 +16797,7 @@
       </c>
       <c r="K195" s="2"/>
       <c r="L195" s="4"/>
-      <c r="M195" s="2" t="s">
+      <c r="M195" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N195" s="2" t="s">
@@ -16957,7 +16957,7 @@
         <v>1083</v>
       </c>
       <c r="L198" s="4"/>
-      <c r="M198" s="2" t="s">
+      <c r="M198" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N198" s="2" t="s">
@@ -17331,7 +17331,7 @@
         <v>1086</v>
       </c>
       <c r="L205" s="4"/>
-      <c r="M205" s="2" t="s">
+      <c r="M205" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N205" s="2" t="s">
@@ -17591,7 +17591,7 @@
       </c>
       <c r="K210" s="2"/>
       <c r="L210" s="4"/>
-      <c r="M210" s="2" t="s">
+      <c r="M210" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N210" s="2" t="s">
@@ -17845,7 +17845,7 @@
       </c>
       <c r="K215" s="2"/>
       <c r="L215" s="4"/>
-      <c r="M215" s="2" t="s">
+      <c r="M215" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N215" s="2" t="s">
@@ -17993,7 +17993,7 @@
         <v>1088</v>
       </c>
       <c r="L218" s="4"/>
-      <c r="M218" s="2" t="s">
+      <c r="M218" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N218" s="2" t="s">
@@ -18157,7 +18157,7 @@
       </c>
       <c r="K221" s="2"/>
       <c r="L221" s="4"/>
-      <c r="M221" s="2" t="s">
+      <c r="M221" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N221" s="2" t="s">
@@ -18315,7 +18315,7 @@
       </c>
       <c r="K224" s="2"/>
       <c r="L224" s="4"/>
-      <c r="M224" s="2" t="s">
+      <c r="M224" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N224" s="2" t="s">
@@ -18751,7 +18751,7 @@
       </c>
       <c r="K232" s="2"/>
       <c r="L232" s="4"/>
-      <c r="M232" s="2" t="s">
+      <c r="M232" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N232" s="2" t="s">
@@ -19159,7 +19159,7 @@
       </c>
       <c r="K240" s="2"/>
       <c r="L240" s="4"/>
-      <c r="M240" s="2" t="s">
+      <c r="M240" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N240" s="2" t="s">
@@ -19459,7 +19459,7 @@
       </c>
       <c r="K246" s="2"/>
       <c r="L246" s="4"/>
-      <c r="M246" s="2" t="s">
+      <c r="M246" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N246" s="2" t="s">
@@ -19713,7 +19713,7 @@
       </c>
       <c r="K251" s="2"/>
       <c r="L251" s="4"/>
-      <c r="M251" s="2" t="s">
+      <c r="M251" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N251" s="2" t="s">
@@ -19915,7 +19915,7 @@
         <v>1091</v>
       </c>
       <c r="L255" s="4"/>
-      <c r="M255" s="2" t="s">
+      <c r="M255" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N255" s="2" t="s">
@@ -20127,7 +20127,7 @@
         <v>1092</v>
       </c>
       <c r="L259" s="4"/>
-      <c r="M259" s="2" t="s">
+      <c r="M259" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N259" s="2" t="s">
@@ -20275,7 +20275,7 @@
       </c>
       <c r="K262" s="2"/>
       <c r="L262" s="4"/>
-      <c r="M262" s="2" t="s">
+      <c r="M262" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N262" s="2" t="s">
@@ -20593,7 +20593,7 @@
         <v>1093</v>
       </c>
       <c r="L268" s="4"/>
-      <c r="M268" s="2" t="s">
+      <c r="M268" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N268" s="2" t="s">
@@ -20851,7 +20851,7 @@
         <v>1094</v>
       </c>
       <c r="L273" s="4"/>
-      <c r="M273" s="2" t="s">
+      <c r="M273" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N273" s="2" t="s">
@@ -20999,7 +20999,7 @@
       </c>
       <c r="K276" s="2"/>
       <c r="L276" s="4"/>
-      <c r="M276" s="2" t="s">
+      <c r="M276" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N276" s="2" t="s">
@@ -21161,7 +21161,7 @@
       </c>
       <c r="K279" s="2"/>
       <c r="L279" s="4"/>
-      <c r="M279" s="2" t="s">
+      <c r="M279" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N279" s="2" t="s">
@@ -21379,7 +21379,7 @@
         <v>1096</v>
       </c>
       <c r="L283" s="4"/>
-      <c r="M283" s="2" t="s">
+      <c r="M283" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N283" s="2" t="s">
@@ -21639,7 +21639,7 @@
       </c>
       <c r="K288" s="2"/>
       <c r="L288" s="4"/>
-      <c r="M288" s="2" t="s">
+      <c r="M288" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N288" s="2" t="s">
@@ -21785,7 +21785,7 @@
       </c>
       <c r="K291" s="2"/>
       <c r="L291" s="4"/>
-      <c r="M291" s="2" t="s">
+      <c r="M291" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N291" s="2" t="s">
@@ -22155,7 +22155,7 @@
       </c>
       <c r="K298" s="2"/>
       <c r="L298" s="4"/>
-      <c r="M298" s="2" t="s">
+      <c r="M298" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N298" s="2" t="s">
@@ -22301,7 +22301,7 @@
       </c>
       <c r="K301" s="2"/>
       <c r="L301" s="4"/>
-      <c r="M301" s="2" t="s">
+      <c r="M301" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N301" s="2" t="s">
@@ -22673,7 +22673,7 @@
         <v>1099</v>
       </c>
       <c r="L308" s="4"/>
-      <c r="M308" s="2" t="s">
+      <c r="M308" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N308" s="2" t="s">
@@ -22821,7 +22821,7 @@
       </c>
       <c r="K311" s="2"/>
       <c r="L311" s="4"/>
-      <c r="M311" s="2" t="s">
+      <c r="M311" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N311" s="2" t="s">
@@ -22977,7 +22977,7 @@
         <v>1100</v>
       </c>
       <c r="L314" s="4"/>
-      <c r="M314" s="2" t="s">
+      <c r="M314" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N314" s="2" t="s">
@@ -23125,7 +23125,7 @@
       </c>
       <c r="K317" s="2"/>
       <c r="L317" s="4"/>
-      <c r="M317" s="2" t="s">
+      <c r="M317" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N317" s="2" t="s">
@@ -23287,7 +23287,7 @@
       </c>
       <c r="K320" s="2"/>
       <c r="L320" s="4"/>
-      <c r="M320" s="2" t="s">
+      <c r="M320" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N320" s="2" t="s">
@@ -23505,7 +23505,7 @@
         <v>1102</v>
       </c>
       <c r="L324" s="4"/>
-      <c r="M324" s="2" t="s">
+      <c r="M324" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N324" s="2" t="s">
@@ -23917,7 +23917,7 @@
         <v>1103</v>
       </c>
       <c r="L332" s="4"/>
-      <c r="M332" s="2" t="s">
+      <c r="M332" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N332" s="2" t="s">
@@ -24117,7 +24117,7 @@
         <v>1104</v>
       </c>
       <c r="L336" s="4"/>
-      <c r="M336" s="2" t="s">
+      <c r="M336" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N336" s="2" t="s">
@@ -24315,7 +24315,7 @@
       </c>
       <c r="K340" s="2"/>
       <c r="L340" s="4"/>
-      <c r="M340" s="2" t="s">
+      <c r="M340" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N340" s="2" t="s">
@@ -24461,7 +24461,7 @@
       </c>
       <c r="K343" s="2"/>
       <c r="L343" s="4"/>
-      <c r="M343" s="2" t="s">
+      <c r="M343" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N343" s="2" t="s">
@@ -24831,7 +24831,7 @@
       </c>
       <c r="K350" s="2"/>
       <c r="L350" s="4"/>
-      <c r="M350" s="2" t="s">
+      <c r="M350" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N350" s="2" t="s">
@@ -24977,7 +24977,7 @@
       </c>
       <c r="K353" s="2"/>
       <c r="L353" s="4"/>
-      <c r="M353" s="2" t="s">
+      <c r="M353" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N353" s="2" t="s">
@@ -25349,7 +25349,7 @@
         <v>1105</v>
       </c>
       <c r="L360" s="4"/>
-      <c r="M360" s="2" t="s">
+      <c r="M360" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N360" s="2" t="s">
@@ -25497,7 +25497,7 @@
       </c>
       <c r="K363" s="2"/>
       <c r="L363" s="4"/>
-      <c r="M363" s="2" t="s">
+      <c r="M363" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N363" s="2" t="s">
@@ -25653,7 +25653,7 @@
         <v>1106</v>
       </c>
       <c r="L366" s="4"/>
-      <c r="M366" s="2" t="s">
+      <c r="M366" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N366" s="2" t="s">
@@ -25801,7 +25801,7 @@
       </c>
       <c r="K369" s="2"/>
       <c r="L369" s="4"/>
-      <c r="M369" s="2" t="s">
+      <c r="M369" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N369" s="2" t="s">
@@ -25963,7 +25963,7 @@
       </c>
       <c r="K372" s="2"/>
       <c r="L372" s="4"/>
-      <c r="M372" s="2" t="s">
+      <c r="M372" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N372" s="2" t="s">
@@ -26175,7 +26175,7 @@
       </c>
       <c r="K376" s="2"/>
       <c r="L376" s="4"/>
-      <c r="M376" s="2" t="s">
+      <c r="M376" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N376" s="2" t="s">
@@ -26371,7 +26371,7 @@
       </c>
       <c r="K380" s="2"/>
       <c r="L380" s="4"/>
-      <c r="M380" s="2" t="s">
+      <c r="M380" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N380" s="2" t="s">
@@ -26569,7 +26569,7 @@
         <v>1107</v>
       </c>
       <c r="L384" s="4"/>
-      <c r="M384" s="2" t="s">
+      <c r="M384" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N384" s="2" t="s">
@@ -26717,7 +26717,7 @@
       </c>
       <c r="K387" s="2"/>
       <c r="L387" s="4"/>
-      <c r="M387" s="2" t="s">
+      <c r="M387" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N387" s="2" t="s">
@@ -26879,7 +26879,7 @@
       </c>
       <c r="K390" s="2"/>
       <c r="L390" s="4"/>
-      <c r="M390" s="2" t="s">
+      <c r="M390" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N390" s="2" t="s">
@@ -27039,7 +27039,7 @@
         <v>1108</v>
       </c>
       <c r="L393" s="4"/>
-      <c r="M393" s="2" t="s">
+      <c r="M393" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N393" s="2" t="s">
@@ -27299,7 +27299,7 @@
       </c>
       <c r="K398" s="2"/>
       <c r="L398" s="4"/>
-      <c r="M398" s="2" t="s">
+      <c r="M398" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N398" s="2" t="s">
@@ -27445,7 +27445,7 @@
       </c>
       <c r="K401" s="2"/>
       <c r="L401" s="4"/>
-      <c r="M401" s="2" t="s">
+      <c r="M401" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N401" s="2" t="s">
@@ -27599,7 +27599,7 @@
       </c>
       <c r="K404" s="2"/>
       <c r="L404" s="4"/>
-      <c r="M404" s="2" t="s">
+      <c r="M404" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N404" s="2" t="s">
@@ -27855,7 +27855,7 @@
         <v>1110</v>
       </c>
       <c r="L409" s="4"/>
-      <c r="M409" s="2" t="s">
+      <c r="M409" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N409" s="2" t="s">
@@ -28003,7 +28003,7 @@
       </c>
       <c r="K412" s="2"/>
       <c r="L412" s="4"/>
-      <c r="M412" s="2" t="s">
+      <c r="M412" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N412" s="2" t="s">
@@ -28165,7 +28165,7 @@
       </c>
       <c r="K415" s="2"/>
       <c r="L415" s="4"/>
-      <c r="M415" s="2" t="s">
+      <c r="M415" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N415" s="2" t="s">
@@ -28381,7 +28381,7 @@
       </c>
       <c r="K419" s="2"/>
       <c r="L419" s="4"/>
-      <c r="M419" s="2" t="s">
+      <c r="M419" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N419" s="2" t="s">
@@ -28527,7 +28527,7 @@
       </c>
       <c r="K422" s="2"/>
       <c r="L422" s="4"/>
-      <c r="M422" s="2" t="s">
+      <c r="M422" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N422" s="2" t="s">
@@ -28681,7 +28681,7 @@
       </c>
       <c r="K425" s="2"/>
       <c r="L425" s="4"/>
-      <c r="M425" s="2" t="s">
+      <c r="M425" s="3" t="s">
         <v>100</v>
       </c>
       <c r="N425" s="2" t="s">
@@ -28827,7 +28827,7 @@
       </c>
       <c r="K428" s="2"/>
       <c r="L428" s="4"/>
-      <c r="M428" s="2" t="s">
+      <c r="M428" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N428" s="2" t="s">
@@ -28981,7 +28981,7 @@
       </c>
       <c r="K431" s="2"/>
       <c r="L431" s="4"/>
-      <c r="M431" s="2" t="s">
+      <c r="M431" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N431" s="2" t="s">
@@ -29127,7 +29127,7 @@
       </c>
       <c r="K434" s="2"/>
       <c r="L434" s="4"/>
-      <c r="M434" s="2" t="s">
+      <c r="M434" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N434" s="2" t="s">
@@ -29283,7 +29283,7 @@
         <v>1112</v>
       </c>
       <c r="L437" s="4"/>
-      <c r="M437" s="2" t="s">
+      <c r="M437" s="3" t="s">
         <v>102</v>
       </c>
       <c r="N437" s="2" t="s">
@@ -29431,7 +29431,7 @@
       </c>
       <c r="K440" s="2"/>
       <c r="L440" s="4"/>
-      <c r="M440" s="2" t="s">
+      <c r="M440" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N440" s="2" t="s">
@@ -29595,7 +29595,7 @@
         <v>1113</v>
       </c>
       <c r="L443" s="4"/>
-      <c r="M443" s="2" t="s">
+      <c r="M443" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N443" s="2" t="s">
@@ -29761,7 +29761,7 @@
         <v>1114</v>
       </c>
       <c r="L446" s="4"/>
-      <c r="M446" s="2" t="s">
+      <c r="M446" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N446" s="2" t="s">
@@ -29927,7 +29927,7 @@
         <v>1115</v>
       </c>
       <c r="L449" s="4"/>
-      <c r="M449" s="2" t="s">
+      <c r="M449" s="3" t="s">
         <v>105</v>
       </c>
       <c r="N449" s="2" t="s">
@@ -30093,7 +30093,7 @@
         <v>1116</v>
       </c>
       <c r="L452" s="4"/>
-      <c r="M452" s="2" t="s">
+      <c r="M452" s="3" t="s">
         <v>106</v>
       </c>
       <c r="N452" s="2" t="s">
@@ -30255,7 +30255,7 @@
         <v>1117</v>
       </c>
       <c r="L455" s="4"/>
-      <c r="M455" s="2" t="s">
+      <c r="M455" s="3" t="s">
         <v>107</v>
       </c>
       <c r="N455" s="2" t="s">
@@ -30513,7 +30513,7 @@
         <v>1118</v>
       </c>
       <c r="L460" s="4"/>
-      <c r="M460" s="2" t="s">
+      <c r="M460" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N460" s="2" t="s">
@@ -30771,7 +30771,7 @@
         <v>1119</v>
       </c>
       <c r="L465" s="4"/>
-      <c r="M465" s="2" t="s">
+      <c r="M465" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N465" s="2" t="s">
@@ -31027,7 +31027,7 @@
       </c>
       <c r="K470" s="2"/>
       <c r="L470" s="4"/>
-      <c r="M470" s="2" t="s">
+      <c r="M470" s="3" t="s">
         <v>110</v>
       </c>
       <c r="N470" s="2" t="s">
@@ -31283,7 +31283,7 @@
         <v>1120</v>
       </c>
       <c r="L475" s="4"/>
-      <c r="M475" s="2" t="s">
+      <c r="M475" s="3" t="s">
         <v>111</v>
       </c>
       <c r="N475" s="2" t="s">
@@ -31553,7 +31553,7 @@
         <v>1121</v>
       </c>
       <c r="L480" s="4"/>
-      <c r="M480" s="2" t="s">
+      <c r="M480" s="3" t="s">
         <v>112</v>
       </c>
       <c r="N480" s="2" t="s">
@@ -31769,7 +31769,7 @@
         <v>1122</v>
       </c>
       <c r="L484" s="4"/>
-      <c r="M484" s="2" t="s">
+      <c r="M484" s="3" t="s">
         <v>113</v>
       </c>
       <c r="N484" s="2" t="s">
@@ -31985,7 +31985,7 @@
         <v>1123</v>
       </c>
       <c r="L488" s="4"/>
-      <c r="M488" s="2" t="s">
+      <c r="M488" s="3" t="s">
         <v>114</v>
       </c>
       <c r="N488" s="2" t="s">
@@ -32309,7 +32309,7 @@
         <v>1119</v>
       </c>
       <c r="L494" s="4"/>
-      <c r="M494" s="2" t="s">
+      <c r="M494" s="3" t="s">
         <v>115</v>
       </c>
       <c r="N494" s="2" t="s">
@@ -32579,7 +32579,7 @@
         <v>1124</v>
       </c>
       <c r="L499" s="4"/>
-      <c r="M499" s="2" t="s">
+      <c r="M499" s="3" t="s">
         <v>116</v>
       </c>
       <c r="N499" s="2" t="s">
@@ -32737,7 +32737,7 @@
         <v>1125</v>
       </c>
       <c r="L502" s="4"/>
-      <c r="M502" s="2" t="s">
+      <c r="M502" s="3" t="s">
         <v>117</v>
       </c>
       <c r="N502" s="2" t="s">
@@ -33041,7 +33041,7 @@
         <v>1126</v>
       </c>
       <c r="L508" s="4"/>
-      <c r="M508" s="2" t="s">
+      <c r="M508" s="3" t="s">
         <v>118</v>
       </c>
       <c r="N508" s="2" t="s">
@@ -33189,7 +33189,7 @@
       </c>
       <c r="K511" s="2"/>
       <c r="L511" s="4"/>
-      <c r="M511" s="2" t="s">
+      <c r="M511" s="3" t="s">
         <v>119</v>
       </c>
       <c r="N511" s="2" t="s">
@@ -33347,7 +33347,7 @@
       </c>
       <c r="K514" s="2"/>
       <c r="L514" s="4"/>
-      <c r="M514" s="2" t="s">
+      <c r="M514" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N514" s="2" t="s">
@@ -33493,7 +33493,7 @@
       </c>
       <c r="K517" s="2"/>
       <c r="L517" s="4"/>
-      <c r="M517" s="2" t="s">
+      <c r="M517" s="3" t="s">
         <v>120</v>
       </c>
       <c r="N517" s="2" t="s">
@@ -33705,7 +33705,7 @@
       </c>
       <c r="K521" s="2"/>
       <c r="L521" s="4"/>
-      <c r="M521" s="2" t="s">
+      <c r="M521" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N521" s="2" t="s">
@@ -33851,7 +33851,7 @@
       </c>
       <c r="K524" s="2"/>
       <c r="L524" s="4"/>
-      <c r="M524" s="2" t="s">
+      <c r="M524" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N524" s="2" t="s">
@@ -34173,7 +34173,7 @@
         <v>1127</v>
       </c>
       <c r="L530" s="4"/>
-      <c r="M530" s="2" t="s">
+      <c r="M530" s="3" t="s">
         <v>121</v>
       </c>
       <c r="N530" s="2" t="s">
@@ -34321,7 +34321,7 @@
       </c>
       <c r="K533" s="2"/>
       <c r="L533" s="4"/>
-      <c r="M533" s="2" t="s">
+      <c r="M533" s="3" t="s">
         <v>119</v>
       </c>
       <c r="N533" s="2" t="s">
@@ -34483,7 +34483,7 @@
       </c>
       <c r="K536" s="2"/>
       <c r="L536" s="4"/>
-      <c r="M536" s="2" t="s">
+      <c r="M536" s="3" t="s">
         <v>121</v>
       </c>
       <c r="N536" s="2" t="s">
@@ -34695,7 +34695,7 @@
       </c>
       <c r="K540" s="2"/>
       <c r="L540" s="4"/>
-      <c r="M540" s="2" t="s">
+      <c r="M540" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N540" s="2" t="s">
@@ -34945,7 +34945,7 @@
       </c>
       <c r="K545" s="2"/>
       <c r="L545" s="4"/>
-      <c r="M545" s="2" t="s">
+      <c r="M545" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N545" s="2" t="s">
@@ -35299,7 +35299,7 @@
       </c>
       <c r="K552" s="2"/>
       <c r="L552" s="4"/>
-      <c r="M552" s="2" t="s">
+      <c r="M552" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N552" s="2" t="s">
@@ -35497,7 +35497,7 @@
         <v>1128</v>
       </c>
       <c r="L556" s="4"/>
-      <c r="M556" s="2" t="s">
+      <c r="M556" s="3" t="s">
         <v>122</v>
       </c>
       <c r="N556" s="2" t="s">
@@ -35645,7 +35645,7 @@
       </c>
       <c r="K559" s="2"/>
       <c r="L559" s="4"/>
-      <c r="M559" s="2" t="s">
+      <c r="M559" s="3" t="s">
         <v>123</v>
       </c>
       <c r="N559" s="2" t="s">
@@ -35809,7 +35809,7 @@
         <v>1114</v>
       </c>
       <c r="L562" s="4"/>
-      <c r="M562" s="2" t="s">
+      <c r="M562" s="3" t="s">
         <v>124</v>
       </c>
       <c r="N562" s="2" t="s">
@@ -35969,7 +35969,7 @@
       </c>
       <c r="K565" s="2"/>
       <c r="L565" s="4"/>
-      <c r="M565" s="2" t="s">
+      <c r="M565" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N565" s="2" t="s">
@@ -36115,7 +36115,7 @@
       </c>
       <c r="K568" s="2"/>
       <c r="L568" s="4"/>
-      <c r="M568" s="2" t="s">
+      <c r="M568" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N568" s="2" t="s">
@@ -36555,7 +36555,7 @@
       </c>
       <c r="K576" s="2"/>
       <c r="L576" s="4"/>
-      <c r="M576" s="2" t="s">
+      <c r="M576" s="3" t="s">
         <v>125</v>
       </c>
       <c r="N576" s="2" t="s">
@@ -36715,7 +36715,7 @@
         <v>1129</v>
       </c>
       <c r="L579" s="4"/>
-      <c r="M579" s="2" t="s">
+      <c r="M579" s="3" t="s">
         <v>126</v>
       </c>
       <c r="N579" s="2" t="s">
@@ -36871,7 +36871,7 @@
       </c>
       <c r="K582" s="2"/>
       <c r="L582" s="4"/>
-      <c r="M582" s="2" t="s">
+      <c r="M582" s="3" t="s">
         <v>127</v>
       </c>
       <c r="N582" s="2" t="s">
@@ -37279,7 +37279,7 @@
       </c>
       <c r="K590" s="2"/>
       <c r="L590" s="4"/>
-      <c r="M590" s="2" t="s">
+      <c r="M590" s="3" t="s">
         <v>128</v>
       </c>
       <c r="N590" s="2" t="s">
@@ -37539,7 +37539,7 @@
         <v>1131</v>
       </c>
       <c r="L595" s="4"/>
-      <c r="M595" s="2" t="s">
+      <c r="M595" s="3" t="s">
         <v>129</v>
       </c>
       <c r="N595" s="2" t="s">
@@ -37851,7 +37851,7 @@
         <v>1132</v>
       </c>
       <c r="L601" s="4"/>
-      <c r="M601" s="2" t="s">
+      <c r="M601" s="3" t="s">
         <v>130</v>
       </c>
       <c r="N601" s="2" t="s">
@@ -37999,7 +37999,7 @@
       </c>
       <c r="K604" s="2"/>
       <c r="L604" s="4"/>
-      <c r="M604" s="2" t="s">
+      <c r="M604" s="3" t="s">
         <v>131</v>
       </c>
       <c r="N604" s="2" t="s">
@@ -38163,7 +38163,7 @@
         <v>1133</v>
       </c>
       <c r="L607" s="4"/>
-      <c r="M607" s="2" t="s">
+      <c r="M607" s="3" t="s">
         <v>132</v>
       </c>
       <c r="N607" s="2" t="s">
@@ -38327,7 +38327,7 @@
       </c>
       <c r="K610" s="2"/>
       <c r="L610" s="4"/>
-      <c r="M610" s="2" t="s">
+      <c r="M610" s="3" t="s">
         <v>130</v>
       </c>
       <c r="N610" s="2" t="s">
@@ -38543,7 +38543,7 @@
       </c>
       <c r="K614" s="2"/>
       <c r="L614" s="4"/>
-      <c r="M614" s="2" t="s">
+      <c r="M614" s="3" t="s">
         <v>133</v>
       </c>
       <c r="N614" s="2" t="s">
@@ -38689,7 +38689,7 @@
       </c>
       <c r="K617" s="2"/>
       <c r="L617" s="4"/>
-      <c r="M617" s="2" t="s">
+      <c r="M617" s="3" t="s">
         <v>134</v>
       </c>
       <c r="N617" s="2" t="s">
@@ -38905,7 +38905,7 @@
       </c>
       <c r="K621" s="2"/>
       <c r="L621" s="4"/>
-      <c r="M621" s="2" t="s">
+      <c r="M621" s="3" t="s">
         <v>135</v>
       </c>
       <c r="N621" s="2" t="s">
@@ -39119,7 +39119,7 @@
         <v>1133</v>
       </c>
       <c r="L625" s="4"/>
-      <c r="M625" s="2" t="s">
+      <c r="M625" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N625" s="2" t="s">
@@ -39381,7 +39381,7 @@
         <v>1135</v>
       </c>
       <c r="L630" s="4"/>
-      <c r="M630" s="2" t="s">
+      <c r="M630" s="3" t="s">
         <v>136</v>
       </c>
       <c r="N630" s="2" t="s">
@@ -39529,7 +39529,7 @@
       </c>
       <c r="K633" s="2"/>
       <c r="L633" s="4"/>
-      <c r="M633" s="2" t="s">
+      <c r="M633" s="3" t="s">
         <v>131</v>
       </c>
       <c r="N633" s="2" t="s">
@@ -39693,7 +39693,7 @@
         <v>1136</v>
       </c>
       <c r="L636" s="4"/>
-      <c r="M636" s="2" t="s">
+      <c r="M636" s="3" t="s">
         <v>137</v>
       </c>
       <c r="N636" s="2" t="s">
@@ -39849,7 +39849,7 @@
       </c>
       <c r="K639" s="2"/>
       <c r="L639" s="4"/>
-      <c r="M639" s="2" t="s">
+      <c r="M639" s="3" t="s">
         <v>138</v>
       </c>
       <c r="N639" s="2" t="s">
@@ -40701,7 +40701,7 @@
       </c>
       <c r="K655" s="2"/>
       <c r="L655" s="4"/>
-      <c r="M655" s="2" t="s">
+      <c r="M655" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N655" s="2" t="s">
@@ -40861,7 +40861,7 @@
         <v>1138</v>
       </c>
       <c r="L658" s="4"/>
-      <c r="M658" s="2" t="s">
+      <c r="M658" s="3" t="s">
         <v>140</v>
       </c>
       <c r="N658" s="2" t="s">
@@ -41075,7 +41075,7 @@
       </c>
       <c r="K662" s="2"/>
       <c r="L662" s="4"/>
-      <c r="M662" s="2" t="s">
+      <c r="M662" s="3" t="s">
         <v>141</v>
       </c>
       <c r="N662" s="2" t="s">
@@ -41233,7 +41233,7 @@
       </c>
       <c r="K665" s="2"/>
       <c r="L665" s="4"/>
-      <c r="M665" s="2" t="s">
+      <c r="M665" s="3" t="s">
         <v>142</v>
       </c>
       <c r="N665" s="2" t="s">
@@ -41445,7 +41445,7 @@
       </c>
       <c r="K669" s="2"/>
       <c r="L669" s="4"/>
-      <c r="M669" s="2" t="s">
+      <c r="M669" s="3" t="s">
         <v>143</v>
       </c>
       <c r="N669" s="2" t="s">
@@ -41801,7 +41801,7 @@
         <v>1139</v>
       </c>
       <c r="L676" s="4"/>
-      <c r="M676" s="2" t="s">
+      <c r="M676" s="3" t="s">
         <v>144</v>
       </c>
       <c r="N676" s="2" t="s">
@@ -42105,7 +42105,7 @@
         <v>1140</v>
       </c>
       <c r="L682" s="4"/>
-      <c r="M682" s="2" t="s">
+      <c r="M682" s="3" t="s">
         <v>145</v>
       </c>
       <c r="N682" s="2" t="s">
@@ -42255,7 +42255,7 @@
         <v>1141</v>
       </c>
       <c r="L685" s="4"/>
-      <c r="M685" s="2" t="s">
+      <c r="M685" s="3" t="s">
         <v>146</v>
       </c>
       <c r="N685" s="2" t="s">
@@ -42475,7 +42475,7 @@
         <v>1143</v>
       </c>
       <c r="L689" s="4"/>
-      <c r="M689" s="2" t="s">
+      <c r="M689" s="3" t="s">
         <v>131</v>
       </c>
       <c r="N689" s="2" t="s">
@@ -42641,7 +42641,7 @@
         <v>1144</v>
       </c>
       <c r="L692" s="4"/>
-      <c r="M692" s="2" t="s">
+      <c r="M692" s="3" t="s">
         <v>132</v>
       </c>
       <c r="N692" s="2" t="s">
@@ -42807,7 +42807,7 @@
         <v>1145</v>
       </c>
       <c r="L695" s="4"/>
-      <c r="M695" s="2" t="s">
+      <c r="M695" s="3" t="s">
         <v>147</v>
       </c>
       <c r="N695" s="2" t="s">
@@ -42967,7 +42967,7 @@
       </c>
       <c r="K698" s="2"/>
       <c r="L698" s="4"/>
-      <c r="M698" s="2" t="s">
+      <c r="M698" s="3" t="s">
         <v>148</v>
       </c>
       <c r="N698" s="2" t="s">
@@ -43185,7 +43185,7 @@
         <v>1147</v>
       </c>
       <c r="L702" s="4"/>
-      <c r="M702" s="2" t="s">
+      <c r="M702" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N702" s="2" t="s">
@@ -43597,7 +43597,7 @@
         <v>1148</v>
       </c>
       <c r="L710" s="4"/>
-      <c r="M710" s="2" t="s">
+      <c r="M710" s="3" t="s">
         <v>149</v>
       </c>
       <c r="N710" s="2" t="s">
@@ -43955,7 +43955,7 @@
         <v>1149</v>
       </c>
       <c r="L717" s="4"/>
-      <c r="M717" s="2" t="s">
+      <c r="M717" s="3" t="s">
         <v>150</v>
       </c>
       <c r="N717" s="2" t="s">
@@ -44103,7 +44103,7 @@
       </c>
       <c r="K720" s="2"/>
       <c r="L720" s="4"/>
-      <c r="M720" s="2" t="s">
+      <c r="M720" s="3" t="s">
         <v>146</v>
       </c>
       <c r="N720" s="2" t="s">
@@ -44257,7 +44257,7 @@
       </c>
       <c r="K723" s="2"/>
       <c r="L723" s="4"/>
-      <c r="M723" s="2" t="s">
+      <c r="M723" s="3" t="s">
         <v>151</v>
       </c>
       <c r="N723" s="2" t="s">
@@ -44405,7 +44405,7 @@
         <v>1150</v>
       </c>
       <c r="L726" s="4"/>
-      <c r="M726" s="2" t="s">
+      <c r="M726" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N726" s="2" t="s">
@@ -44565,7 +44565,7 @@
       </c>
       <c r="K729" s="2"/>
       <c r="L729" s="4"/>
-      <c r="M729" s="2" t="s">
+      <c r="M729" s="3" t="s">
         <v>152</v>
       </c>
       <c r="N729" s="2" t="s">
@@ -44887,7 +44887,7 @@
         <v>1152</v>
       </c>
       <c r="L735" s="4"/>
-      <c r="M735" s="2" t="s">
+      <c r="M735" s="3" t="s">
         <v>153</v>
       </c>
       <c r="N735" s="2" t="s">
@@ -45035,7 +45035,7 @@
       </c>
       <c r="K738" s="2"/>
       <c r="L738" s="4"/>
-      <c r="M738" s="2" t="s">
+      <c r="M738" s="3" t="s">
         <v>146</v>
       </c>
       <c r="N738" s="2" t="s">
@@ -45189,7 +45189,7 @@
       </c>
       <c r="K741" s="2"/>
       <c r="L741" s="4"/>
-      <c r="M741" s="2" t="s">
+      <c r="M741" s="3" t="s">
         <v>154</v>
       </c>
       <c r="N741" s="2" t="s">
@@ -45335,7 +45335,7 @@
       </c>
       <c r="K744" s="2"/>
       <c r="L744" s="4"/>
-      <c r="M744" s="2" t="s">
+      <c r="M744" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N744" s="2" t="s">
@@ -45493,7 +45493,7 @@
       </c>
       <c r="K747" s="2"/>
       <c r="L747" s="4"/>
-      <c r="M747" s="2" t="s">
+      <c r="M747" s="3" t="s">
         <v>155</v>
       </c>
       <c r="N747" s="2" t="s">
@@ -45865,7 +45865,7 @@
         <v>1149</v>
       </c>
       <c r="L754" s="4"/>
-      <c r="M754" s="2" t="s">
+      <c r="M754" s="3" t="s">
         <v>156</v>
       </c>
       <c r="N754" s="2" t="s">
@@ -46013,7 +46013,7 @@
       </c>
       <c r="K757" s="2"/>
       <c r="L757" s="4"/>
-      <c r="M757" s="2" t="s">
+      <c r="M757" s="3" t="s">
         <v>146</v>
       </c>
       <c r="N757" s="2" t="s">
@@ -46167,7 +46167,7 @@
       </c>
       <c r="K760" s="2"/>
       <c r="L760" s="4"/>
-      <c r="M760" s="2" t="s">
+      <c r="M760" s="3" t="s">
         <v>157</v>
       </c>
       <c r="N760" s="2" t="s">
@@ -46313,7 +46313,7 @@
       </c>
       <c r="K763" s="2"/>
       <c r="L763" s="4"/>
-      <c r="M763" s="2" t="s">
+      <c r="M763" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N763" s="2" t="s">
@@ -46471,7 +46471,7 @@
       </c>
       <c r="K766" s="2"/>
       <c r="L766" s="4"/>
-      <c r="M766" s="2" t="s">
+      <c r="M766" s="3" t="s">
         <v>158</v>
       </c>
       <c r="N766" s="2" t="s">
@@ -46627,7 +46627,7 @@
         <v>1149</v>
       </c>
       <c r="L769" s="4"/>
-      <c r="M769" s="2" t="s">
+      <c r="M769" s="3" t="s">
         <v>159</v>
       </c>
       <c r="N769" s="2" t="s">
@@ -46917,7 +46917,7 @@
       </c>
       <c r="K775" s="2"/>
       <c r="L775" s="4"/>
-      <c r="M775" s="2" t="s">
+      <c r="M775" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N775" s="2" t="s">
@@ -47077,7 +47077,7 @@
         <v>1154</v>
       </c>
       <c r="L778" s="4"/>
-      <c r="M778" s="2" t="s">
+      <c r="M778" s="3" t="s">
         <v>160</v>
       </c>
       <c r="N778" s="2" t="s">
@@ -47225,7 +47225,7 @@
       </c>
       <c r="K781" s="2"/>
       <c r="L781" s="4"/>
-      <c r="M781" s="2" t="s">
+      <c r="M781" s="3" t="s">
         <v>137</v>
       </c>
       <c r="N781" s="2" t="s">
@@ -47383,7 +47383,7 @@
       </c>
       <c r="K784" s="2"/>
       <c r="L784" s="4"/>
-      <c r="M784" s="2" t="s">
+      <c r="M784" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N784" s="2" t="s">
@@ -47541,7 +47541,7 @@
       </c>
       <c r="K787" s="2"/>
       <c r="L787" s="4"/>
-      <c r="M787" s="2" t="s">
+      <c r="M787" s="3" t="s">
         <v>161</v>
       </c>
       <c r="N787" s="2" t="s">
@@ -47687,7 +47687,7 @@
       </c>
       <c r="K790" s="2"/>
       <c r="L790" s="4"/>
-      <c r="M790" s="2" t="s">
+      <c r="M790" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N790" s="2" t="s">
@@ -47847,7 +47847,7 @@
         <v>1155</v>
       </c>
       <c r="L793" s="4"/>
-      <c r="M793" s="2" t="s">
+      <c r="M793" s="3" t="s">
         <v>162</v>
       </c>
       <c r="N793" s="2" t="s">
@@ -47995,7 +47995,7 @@
       </c>
       <c r="K796" s="2"/>
       <c r="L796" s="4"/>
-      <c r="M796" s="2" t="s">
+      <c r="M796" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N796" s="2" t="s">
@@ -48153,7 +48153,7 @@
       </c>
       <c r="K799" s="2"/>
       <c r="L799" s="4"/>
-      <c r="M799" s="2" t="s">
+      <c r="M799" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N799" s="2" t="s">
@@ -48563,7 +48563,7 @@
         <v>1156</v>
       </c>
       <c r="L807" s="4"/>
-      <c r="M807" s="2" t="s">
+      <c r="M807" s="3" t="s">
         <v>164</v>
       </c>
       <c r="N807" s="2" t="s">
@@ -48711,7 +48711,7 @@
       </c>
       <c r="K810" s="2"/>
       <c r="L810" s="4"/>
-      <c r="M810" s="2" t="s">
+      <c r="M810" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N810" s="2" t="s">
@@ -48869,7 +48869,7 @@
       </c>
       <c r="K813" s="2"/>
       <c r="L813" s="4"/>
-      <c r="M813" s="2" t="s">
+      <c r="M813" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N813" s="2" t="s">
@@ -49277,7 +49277,7 @@
       </c>
       <c r="K821" s="2"/>
       <c r="L821" s="4"/>
-      <c r="M821" s="2" t="s">
+      <c r="M821" s="3" t="s">
         <v>165</v>
       </c>
       <c r="N821" s="2" t="s">
@@ -49699,7 +49699,7 @@
         <v>1158</v>
       </c>
       <c r="L829" s="4"/>
-      <c r="M829" s="2" t="s">
+      <c r="M829" s="3" t="s">
         <v>166</v>
       </c>
       <c r="N829" s="2" t="s">
@@ -49847,7 +49847,7 @@
       </c>
       <c r="K832" s="2"/>
       <c r="L832" s="4"/>
-      <c r="M832" s="2" t="s">
+      <c r="M832" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N832" s="2" t="s">
@@ -50005,7 +50005,7 @@
       </c>
       <c r="K835" s="2"/>
       <c r="L835" s="4"/>
-      <c r="M835" s="2" t="s">
+      <c r="M835" s="3" t="s">
         <v>167</v>
       </c>
       <c r="N835" s="2" t="s">
@@ -50249,7 +50249,7 @@
         <v>1159</v>
       </c>
       <c r="L840" s="4"/>
-      <c r="M840" s="2" t="s">
+      <c r="M840" s="3" t="s">
         <v>168</v>
       </c>
       <c r="N840" s="2" t="s">
@@ -50563,7 +50563,7 @@
       </c>
       <c r="K846" s="2"/>
       <c r="L846" s="4"/>
-      <c r="M846" s="2" t="s">
+      <c r="M846" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N846" s="2" t="s">
@@ -50723,7 +50723,7 @@
         <v>1159</v>
       </c>
       <c r="L849" s="4"/>
-      <c r="M849" s="2" t="s">
+      <c r="M849" s="3" t="s">
         <v>169</v>
       </c>
       <c r="N849" s="2" t="s">
@@ -51257,7 +51257,7 @@
       </c>
       <c r="K859" s="2"/>
       <c r="L859" s="4"/>
-      <c r="M859" s="2" t="s">
+      <c r="M859" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N859" s="2" t="s">
@@ -51415,7 +51415,7 @@
       </c>
       <c r="K862" s="2"/>
       <c r="L862" s="4"/>
-      <c r="M862" s="2" t="s">
+      <c r="M862" s="3" t="s">
         <v>170</v>
       </c>
       <c r="N862" s="2" t="s">
@@ -51727,7 +51727,7 @@
       </c>
       <c r="K868" s="2"/>
       <c r="L868" s="4"/>
-      <c r="M868" s="2" t="s">
+      <c r="M868" s="3" t="s">
         <v>123</v>
       </c>
       <c r="N868" s="2" t="s">
@@ -51885,7 +51885,7 @@
       </c>
       <c r="K871" s="2"/>
       <c r="L871" s="4"/>
-      <c r="M871" s="2" t="s">
+      <c r="M871" s="3" t="s">
         <v>171</v>
       </c>
       <c r="N871" s="2" t="s">
@@ -52415,7 +52415,7 @@
         <v>1161</v>
       </c>
       <c r="L881" s="4"/>
-      <c r="M881" s="2" t="s">
+      <c r="M881" s="3" t="s">
         <v>172</v>
       </c>
       <c r="N881" s="2" t="s">
@@ -52837,7 +52837,7 @@
       </c>
       <c r="K889" s="2"/>
       <c r="L889" s="4"/>
-      <c r="M889" s="2" t="s">
+      <c r="M889" s="3" t="s">
         <v>131</v>
       </c>
       <c r="N889" s="2" t="s">
@@ -52997,7 +52997,7 @@
         <v>1163</v>
       </c>
       <c r="L892" s="4"/>
-      <c r="M892" s="2" t="s">
+      <c r="M892" s="3" t="s">
         <v>173</v>
       </c>
       <c r="N892" s="2" t="s">
@@ -53531,7 +53531,7 @@
       </c>
       <c r="K902" s="2"/>
       <c r="L902" s="4"/>
-      <c r="M902" s="2" t="s">
+      <c r="M902" s="3" t="s">
         <v>131</v>
       </c>
       <c r="N902" s="2" t="s">
@@ -53691,7 +53691,7 @@
       </c>
       <c r="K905" s="2"/>
       <c r="L905" s="4"/>
-      <c r="M905" s="2" t="s">
+      <c r="M905" s="3" t="s">
         <v>174</v>
       </c>
       <c r="N905" s="2"/>
